--- a/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; 8,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,01; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 4,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 3,52</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,94%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 10,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,01; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 5,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 3,7</t>
         </is>
       </c>
     </row>
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,14</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 12,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 4,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 5,36</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 14,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 5,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 5,72</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 14,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 14,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 10,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 9,71</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 16,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 17,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 11,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 10,75</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 4,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,39</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 5,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 5,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 7,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 2,89</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-0,83%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 7,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 4,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 3,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 0,0</t>
+          <t>0,0; 8,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 0,0</t>
+          <t>0,0; 8,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,84</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,52</t>
+          <t>0,0; 5,14</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 10,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 0,0</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 0,0</t>
+          <t>0,0; 9,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,08</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,7</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 15,92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 12,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,29</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>-1,55; 4,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,14</t>
+          <t>-1,47; 5,36</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-1,34%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 18,95</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 14,87</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,37</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,03</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>-1,55; 5,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>-1,47; 5,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>4,57</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,92</t>
+          <t>0,0; 10,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 12,98</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>1,54; 14,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 14,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,92</t>
+          <t>1,82; 10,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,36</t>
+          <t>1,58; 9,71</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,95</t>
+          <t>0,0; 11,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 14,87</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>1,56; 16,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 17,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 5,21</t>
+          <t>1,86; 11,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,72</t>
+          <t>1,61; 10,75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,54; 4,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>-0,62; 3,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,32</t>
+          <t>-0,14; 4,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,94</t>
+          <t>0,07; 5,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,57</t>
+          <t>0,54; 3,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,71</t>
+          <t>0,2; 3,39</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,39</t>
+          <t>0,54; 4,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>-0,62; 3,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,56; 16,72</t>
+          <t>-0,14; 5,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,58; 17,56</t>
+          <t>0,08; 5,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,86; 11,82</t>
+          <t>0,55; 4,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,75</t>
+          <t>0,2; 3,52</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 4,56</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 3,73</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 4,9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 5,47</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 3,84</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 3,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 4,78</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 3,88</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 5,19</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 5,79</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 4,01</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 3,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,82</t>
+          <t>0,0; 11,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 7,09</t>
+          <t>-4,0; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 0,0</t>
+          <t>-13,89; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 0,0</t>
+          <t>-10,12; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,11</t>
+          <t>-2,35; 4,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,89</t>
+          <t>-4,31; 3,14</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,41</t>
+          <t>0,0; 13,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 7,66</t>
+          <t>-4,01; 9,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 0,0</t>
+          <t>-13,89; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 0,0</t>
+          <t>-10,12; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,33</t>
+          <t>-2,35; 4,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,01</t>
+          <t>-4,31; 3,27</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,57</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,29</t>
+          <t>0,0; 9,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 4,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,14</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,03</t>
+          <t>0,0; 10,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 4,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,92</t>
+          <t>0,0; 16,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 12,98</t>
+          <t>-2,74; 12,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>-7,39; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,92</t>
+          <t>-1,55; 5,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,36</t>
+          <t>-1,51; 5,43</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,95</t>
+          <t>0,0; 19,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 14,87</t>
+          <t>-2,75; 14,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>-7,39; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 5,21</t>
+          <t>-1,55; 5,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,72</t>
+          <t>-1,51; 5,74</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 10,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>0,0; 10,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,32</t>
+          <t>1,55; 15,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,94</t>
+          <t>1,56; 15,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,57</t>
+          <t>1,87; 9,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,71</t>
+          <t>1,82; 10,34</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,39</t>
+          <t>0,0; 11,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 11,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,56; 16,72</t>
+          <t>1,57; 17,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 17,56</t>
+          <t>1,58; 18,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 11,82</t>
+          <t>1,91; 11,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,75</t>
+          <t>1,86; 11,53</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,56</t>
+          <t>0,47; 5,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,73</t>
+          <t>-0,73; 3,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,9</t>
+          <t>-0,01; 4,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,47</t>
+          <t>0,04; 4,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,84</t>
+          <t>0,67; 3,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,39</t>
+          <t>0,09; 3,59</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,78</t>
+          <t>0,47; 5,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,88</t>
+          <t>-0,73; 4,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,19</t>
+          <t>-0,01; 5,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,79</t>
+          <t>0,05; 5,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,01</t>
+          <t>0,68; 3,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,52</t>
+          <t>0,09; 3,73</t>
         </is>
       </c>
     </row>
